--- a/Datos/Anuario2024/130401_FiraLlibre.xlsx
+++ b/Datos/Anuario2024/130401_FiraLlibre.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="40" r:id="rId1"/>
+    <sheet name="1" sheetId="39" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -49,76 +55,121 @@
     <definedName name="_R7_1">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Ventas (*)</t>
+  </si>
+  <si>
+    <t>Presentaciones de libros</t>
+  </si>
+  <si>
+    <t>Actividades escolares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visitantes </t>
+  </si>
+  <si>
+    <t>Carpa Editoriales Valencianas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituciones </t>
+  </si>
+  <si>
+    <t>Librerías</t>
+  </si>
+  <si>
+    <t>FERIA DEL LIBRO</t>
+  </si>
+  <si>
+    <t>Fuente: Gremio de Libreros de València.</t>
+  </si>
+  <si>
+    <t>Nota: (*) Cuantía de las ventas en número aproximado, hace referencia a todos los expositores de la feria (librerias y editoriales). (-) Sin datos.</t>
+  </si>
+  <si>
+    <t>1. Feria del Libro 2023</t>
+  </si>
+  <si>
+    <t>Feria del Libro 2023. Edición 57</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,53 +192,51 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="3">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="3">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Millares" xfId="3" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Millares" xfId="3" builtinId="3"/>
     <cellStyle name="Normal 4" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -256,13 +305,31 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -503,8 +570,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5005,8 +5072,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5706,186 +5773,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="inlineStr">
-        <is>
-          <t>FERIA DEL LIBRO</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja28">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="27.42578125" customWidth="1" min="1" max="1"/>
-    <col width="14.7109375" customWidth="1" min="2" max="2"/>
-    <col width="11.7109375" customWidth="1" min="3" max="4"/>
-    <col width="13.7109375" customWidth="1" min="5" max="5"/>
-    <col width="15.7109375" customWidth="1" min="6" max="6"/>
-    <col width="11.7109375" customWidth="1" min="7" max="8"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="inlineStr">
-        <is>
-          <t>1. Feria del Libro 2023</t>
-        </is>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
       </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="7" t="n"/>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Presentaciones de libros</t>
-        </is>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
       </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Actividades escolares</t>
-        </is>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
       </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Librerías</t>
-        </is>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instituciones </t>
-        </is>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
       </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Carpa Editoriales Valencianas</t>
-        </is>
+      <c r="F3" s="9" t="s">
+        <v>4</v>
       </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Visitantes </t>
-        </is>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
       </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t>Ventas (*)</t>
-        </is>
+      <c r="H3" s="9" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Feria del Libro 2023. Edición 57</t>
-        </is>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="10">
         <v>200</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="10">
         <v>60</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="12">
         <v>53</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="10">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="10">
         <v>500000</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="10">
         <v>1000000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Nota: (*) Cuantía de las ventas en número aproximado, hace referencia a todos los expositores de la feria (librerias y editoriales). (-) Sin datos.</t>
-        </is>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Gremio de Libreros de València.</t>
-        </is>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="82"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>